--- a/Bases/FDI_anual.xlsx
+++ b/Bases/FDI_anual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e8b1635bbae8cdf/Documents/BanRep/Replicacion/Bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e8b1635bbae8cdf/Documents/Codigo_compartido_Melo/Climate_Change_and_Financial_Stability/Climate-Change-and-Financial-Stability/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{41605DED-3499-4C12-A5B5-4DE1E3086201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6E1C69-2268-4B8E-A1BB-92A86ABAB199}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{41605DED-3499-4C12-A5B5-4DE1E3086201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F54855-C585-406E-8625-148E8EEE06E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{ADCF5F2A-2FB2-4F1B-B39A-4C6EC98B7628}"/>
   </bookViews>
@@ -325,13 +325,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -343,8 +351,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,12 +366,14 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
       <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -373,8 +383,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401D40F0-4757-4242-B4A7-48C068690192}">
   <dimension ref="A1:N495"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="G477" sqref="G477:G495"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I459" sqref="I459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22571,8 +22581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DA357A-354D-4D26-9975-24B05BF0B150}">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22670,16 +22680,16 @@
       <c r="B2" s="1">
         <v>0.89874261617660522</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.6122092604637146</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.42901471257209778</v>
       </c>
       <c r="E2" s="2">
         <v>0.75448131561279297</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.39686945080757141</v>
       </c>
       <c r="G2" s="2">
@@ -22691,62 +22701,62 @@
       <c r="I2" s="2">
         <v>0.69733929634094238</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.7498009204864502</v>
       </c>
       <c r="K2" s="2">
         <v>0.71141791343688965</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.40649566054344177</v>
       </c>
       <c r="M2" s="2">
-        <v>0.24779605865478516</v>
+        <v>0.29899376630783081</v>
       </c>
       <c r="N2" s="2">
-        <v>0.28154626488685608</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.80769830942153931</v>
+        <v>0.32752156257629395</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.80985337495803833</v>
       </c>
       <c r="P2" s="2">
-        <v>0.44813030958175659</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.32505244016647339</v>
+        <v>0.59329265356063843</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33392438292503357</v>
       </c>
       <c r="R2" s="2">
-        <v>0.34245312213897705</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.5401727557182312</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.74482494592666626</v>
+        <v>0.47347047924995422</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.46242862939834595</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.78417634963989258</v>
       </c>
       <c r="U2" s="2">
-        <v>0.8373752236366272</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.64934158325195313</v>
+        <v>0.82991653680801392</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.74680167436599731</v>
       </c>
       <c r="W2" s="2">
-        <v>0.93443292379379272</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.41841533780097961</v>
+        <v>0.98486024141311646</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.49179840087890625</v>
       </c>
       <c r="Y2" s="2">
-        <v>0.13449384272098541</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.87221938371658325</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.86676108837127686</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0.86676108837127686</v>
+        <v>0.34159570932388306</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.89670413732528687</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.90704590082168579</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.90704590082168579</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -22756,16 +22766,16 @@
       <c r="B3" s="2">
         <v>0.92547237873077393</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.58814519643783569</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.41655230522155762</v>
       </c>
       <c r="E3" s="1">
         <v>0.702739417552948</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.40332525968551636</v>
       </c>
       <c r="G3" s="1">
@@ -22777,62 +22787,62 @@
       <c r="I3" s="1">
         <v>0.69558286666870117</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>0.72750449180603027</v>
       </c>
       <c r="K3" s="1">
         <v>0.69034337997436523</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.41077587008476257</v>
       </c>
       <c r="M3" s="1">
-        <v>0.26022699475288391</v>
+        <v>0.30252084136009216</v>
       </c>
       <c r="N3" s="1">
-        <v>0.30076006054878235</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.79233264923095703</v>
+        <v>0.29081609845161438</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.7968485951423645</v>
       </c>
       <c r="P3" s="1">
-        <v>0.45129767060279846</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.31023260951042175</v>
+        <v>0.5645526647567749</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.27455422282218933</v>
       </c>
       <c r="R3" s="1">
-        <v>0.36238953471183777</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.54140526056289673</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.76065206527709961</v>
+        <v>0.46981599926948547</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.48849418759346008</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.79595214128494263</v>
       </c>
       <c r="U3" s="1">
-        <v>0.84871917963027954</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0.60205161571502686</v>
+        <v>0.80854207277297974</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.69730758666992188</v>
       </c>
       <c r="W3" s="1">
-        <v>0.91842353343963623</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.39824402332305908</v>
+        <v>0.97101598978042603</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.48507142066955566</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.21959638595581055</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0.8674997091293335</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0.86220932006835938</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0.86220932006835938</v>
+        <v>0.36922630667686462</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.8365897536277771</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.90089273452758789</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.90089273452758789</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -22842,16 +22852,16 @@
       <c r="B4" s="1">
         <v>0.92075878381729126</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.58884328603744507</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.44649496674537659</v>
       </c>
       <c r="E4" s="2">
         <v>0.71934342384338379</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.45936405658721924</v>
       </c>
       <c r="G4" s="2">
@@ -22863,62 +22873,62 @@
       <c r="I4" s="2">
         <v>0.70951360464096069</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>0.73924916982650757</v>
       </c>
       <c r="K4" s="2">
         <v>0.71898579597473145</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>0.41902619600296021</v>
       </c>
       <c r="M4" s="2">
-        <v>0.25952005386352539</v>
+        <v>0.26829302310943604</v>
       </c>
       <c r="N4" s="2">
-        <v>0.31373074650764465</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.8381497859954834</v>
+        <v>0.2948574423789978</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.82779258489608765</v>
       </c>
       <c r="P4" s="2">
-        <v>0.49448394775390625</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.33438184857368469</v>
+        <v>0.58278185129165649</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.30477204918861389</v>
       </c>
       <c r="R4" s="2">
-        <v>0.37883177399635315</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.55415070056915283</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.72321707010269165</v>
+        <v>0.49734115600585938</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.44191849231719971</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.775826096534729</v>
       </c>
       <c r="U4" s="2">
-        <v>0.84043371677398682</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.61807078123092651</v>
+        <v>0.83229035139083862</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.69380569458007813</v>
       </c>
       <c r="W4" s="2">
-        <v>0.94262230396270752</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0.41708970069885254</v>
+        <v>0.94869518280029297</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.54639124870300293</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.21220564842224121</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0.89712780714035034</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0.87493717670440674</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0.87493717670440674</v>
+        <v>0.37251681089401245</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.85987722873687744</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.90935850143432617</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.90935850143432617</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -22928,16 +22938,16 @@
       <c r="B5" s="2">
         <v>0.91591840982437134</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.62374091148376465</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.47211781144142151</v>
       </c>
       <c r="E5" s="1">
         <v>0.74178725481033325</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.47124314308166504</v>
       </c>
       <c r="G5" s="1">
@@ -22949,62 +22959,62 @@
       <c r="I5" s="1">
         <v>0.72628426551818848</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.7538025975227356</v>
       </c>
       <c r="K5" s="1">
         <v>0.74322915077209473</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.43124997615814209</v>
       </c>
       <c r="M5" s="1">
-        <v>0.25981691479682922</v>
+        <v>0.28522583842277527</v>
       </c>
       <c r="N5" s="1">
-        <v>0.31338950991630554</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.86959695816040039</v>
+        <v>0.31884205341339111</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.84368151426315308</v>
       </c>
       <c r="P5" s="1">
-        <v>0.51893126964569092</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.39125636219978333</v>
+        <v>0.64784985780715942</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.34993594884872437</v>
       </c>
       <c r="R5" s="1">
-        <v>0.32684555649757385</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.57379072904586792</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.75251442193984985</v>
+        <v>0.46635937690734863</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.47192889451980591</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.79054373502731323</v>
       </c>
       <c r="U5" s="1">
-        <v>0.85389077663421631</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0.65647238492965698</v>
+        <v>0.84333854913711548</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.71425944566726685</v>
       </c>
       <c r="W5" s="1">
-        <v>0.93204683065414429</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0.43033653497695923</v>
+        <v>0.79149860143661499</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.54306995868682861</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.21585105359554291</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0.91035979986190796</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0.88352715969085693</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0.88352715969085693</v>
+        <v>0.37741044163703918</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.87276226282119751</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.90900743007659912</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.90900743007659912</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -23014,16 +23024,16 @@
       <c r="B6" s="1">
         <v>0.92855823040008545</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.64840036630630493</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.49360650777816772</v>
       </c>
       <c r="E6" s="2">
         <v>0.76619988679885864</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.49219149351119995</v>
       </c>
       <c r="G6" s="2">
@@ -23035,62 +23045,62 @@
       <c r="I6" s="2">
         <v>0.7176210880279541</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.76097041368484497</v>
       </c>
       <c r="K6" s="2">
         <v>0.74215108156204224</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>0.43957856297492981</v>
       </c>
       <c r="M6" s="2">
-        <v>0.25425541400909424</v>
+        <v>0.2870623767375946</v>
       </c>
       <c r="N6" s="2">
-        <v>0.34746930003166199</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.84852612018585205</v>
+        <v>0.33566126227378845</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.83695471286773682</v>
       </c>
       <c r="P6" s="2">
-        <v>0.5807114839553833</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.42086666822433472</v>
+        <v>0.7122189998626709</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.37146693468093872</v>
       </c>
       <c r="R6" s="2">
-        <v>0.35787588357925415</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.58461177349090576</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.76218670606613159</v>
+        <v>0.49514183402061462</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.49310833215713501</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.79168236255645752</v>
       </c>
       <c r="U6" s="2">
-        <v>0.85906738042831421</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0.68093979358673096</v>
+        <v>0.85020971298217773</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.73315489292144775</v>
       </c>
       <c r="W6" s="2">
-        <v>0.95118975639343262</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.45373702049255371</v>
+        <v>0.80598098039627075</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.53298616409301758</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.31135466694831848</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.90820735692977905</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0.88454574346542358</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0.88454574346542358</v>
+        <v>0.4295189380645752</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.88239914178848267</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.90704387426376343</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.90704387426376343</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -23100,16 +23110,16 @@
       <c r="B7" s="2">
         <v>0.94252908229827881</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.68127882480621338</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.52463066577911377</v>
       </c>
       <c r="E7" s="1">
         <v>0.85132837295532227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.48210513591766357</v>
       </c>
       <c r="G7" s="1">
@@ -23121,62 +23131,62 @@
       <c r="I7" s="1">
         <v>0.83037340641021729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.78269106149673462</v>
       </c>
       <c r="K7" s="1">
         <v>0.74806803464889526</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0.45569446682929993</v>
       </c>
       <c r="M7" s="1">
-        <v>0.26283091306686401</v>
+        <v>0.28561103343963623</v>
       </c>
       <c r="N7" s="1">
-        <v>0.2901780903339386</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.84526830911636353</v>
+        <v>0.32974338531494141</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.86180073022842407</v>
       </c>
       <c r="P7" s="1">
-        <v>0.56560152769088745</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.4545062780380249</v>
+        <v>0.72656232118606567</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.40519982576370239</v>
       </c>
       <c r="R7" s="1">
-        <v>0.38434082269668579</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.61587893962860107</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.78704166412353516</v>
+        <v>0.53255164623260498</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.52060896158218384</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.80489093065261841</v>
       </c>
       <c r="U7" s="1">
-        <v>0.87086904048919678</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0.76960611343383789</v>
+        <v>0.88960361480712891</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.77789926528930664</v>
       </c>
       <c r="W7" s="1">
-        <v>0.98030519485473633</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0.46659284830093384</v>
+        <v>0.82237380743026733</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.52276670932769775</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.32456159591674805</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0.91856676340103149</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0.88981777429580688</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0.88981777429580688</v>
+        <v>0.43549853563308716</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.92445021867752075</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0.90992939472198486</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.90992939472198486</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -23186,16 +23196,16 @@
       <c r="B8" s="1">
         <v>0.96743476390838623</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.73472589254379272</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.59305858612060547</v>
       </c>
       <c r="E8" s="2">
         <v>0.87242221832275391</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.52797621488571167</v>
       </c>
       <c r="G8" s="2">
@@ -23207,62 +23217,62 @@
       <c r="I8" s="2">
         <v>0.820118248462677</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.77488493919372559</v>
       </c>
       <c r="K8" s="2">
         <v>0.77047014236450195</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>0.43355873227119446</v>
       </c>
       <c r="M8" s="2">
-        <v>0.26310563087463379</v>
+        <v>0.32583537697792053</v>
       </c>
       <c r="N8" s="2">
-        <v>0.35989627242088318</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.83988374471664429</v>
+        <v>0.37550103664398193</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.84827679395675659</v>
       </c>
       <c r="P8" s="2">
-        <v>0.58681297302246094</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.49002262949943542</v>
+        <v>0.77704095840454102</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.44241198897361755</v>
       </c>
       <c r="R8" s="2">
-        <v>0.42302131652832031</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.62791663408279419</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.80481475591659546</v>
+        <v>0.55185729265213013</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.54544693231582642</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.81518441438674927</v>
       </c>
       <c r="U8" s="2">
-        <v>0.8607521653175354</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0.79397052526473999</v>
+        <v>0.89199918508529663</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.79628336429595947</v>
       </c>
       <c r="W8" s="2">
-        <v>0.9787365198135376</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0.4792746901512146</v>
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.51233100891113281</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.34742012619972229</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0.92997646331787109</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0.89070874452590942</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0.89070874452590942</v>
+        <v>0.46444088220596313</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0.94707900285720825</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.91411113739013672</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.91411113739013672</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -23272,16 +23282,16 @@
       <c r="B9" s="2">
         <v>0.89030879735946655</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.71337044239044189</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.59986567497253418</v>
       </c>
       <c r="E9" s="1">
         <v>0.8357694149017334</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.50320732593536377</v>
       </c>
       <c r="G9" s="1">
@@ -23293,62 +23303,62 @@
       <c r="I9" s="1">
         <v>0.79584598541259766</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>0.73623859882354736</v>
       </c>
       <c r="K9" s="1">
         <v>0.78145265579223633</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0.46556815505027771</v>
       </c>
       <c r="M9" s="1">
-        <v>0.26362341642379761</v>
+        <v>0.37119171023368835</v>
       </c>
       <c r="N9" s="1">
-        <v>0.37395372986793518</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.78381115198135376</v>
+        <v>0.38226187229156494</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.77450108528137207</v>
       </c>
       <c r="P9" s="1">
-        <v>0.55247044563293457</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.52429407835006714</v>
+        <v>0.7230188250541687</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.46739098429679871</v>
       </c>
       <c r="R9" s="1">
-        <v>0.42231428623199463</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.62974768877029419</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.78782814741134644</v>
+        <v>0.53837323188781738</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.55986732244491577</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.7828136682510376</v>
       </c>
       <c r="U9" s="1">
-        <v>0.82738500833511353</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0.77248358726501465</v>
+        <v>0.84416228532791138</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.76969164609909058</v>
       </c>
       <c r="W9" s="1">
-        <v>0.9385756254196167</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0.52527940273284912</v>
+        <v>0.98155307769775391</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.5597231388092041</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.36045461893081665</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0.87121552228927612</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0.88145112991333008</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0.88145112991333008</v>
+        <v>0.44453692436218262</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.87152594327926636</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0.87068074941635132</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0.87068074941635132</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -23358,16 +23368,16 @@
       <c r="B10" s="1">
         <v>0.92561227083206177</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.68258768320083618</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.59652441740036011</v>
       </c>
       <c r="E10" s="2">
         <v>0.90966504812240601</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.53028488159179688</v>
       </c>
       <c r="G10" s="2">
@@ -23379,62 +23389,62 @@
       <c r="I10" s="2">
         <v>0.77512025833129883</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0.75487446784973145</v>
       </c>
       <c r="K10" s="2">
         <v>0.75699222087860107</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>0.49241742491722107</v>
       </c>
       <c r="M10" s="2">
-        <v>0.27548471093177795</v>
+        <v>0.31584981083869934</v>
       </c>
       <c r="N10" s="2">
-        <v>0.37538382411003113</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.80655676126480103</v>
+        <v>0.36185690760612488</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.79868251085281372</v>
       </c>
       <c r="P10" s="2">
-        <v>0.57410556077957153</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.51736283302307129</v>
+        <v>0.77211642265319824</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.43966442346572876</v>
       </c>
       <c r="R10" s="2">
-        <v>0.43852525949478149</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.67244851589202881</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.78622031211853027</v>
+        <v>0.57258176803588867</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.58228975534439087</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.82399183511734009</v>
       </c>
       <c r="U10" s="2">
-        <v>0.84455841779708862</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0.80721139907836914</v>
+        <v>0.87617284059524536</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.79700815677642822</v>
       </c>
       <c r="W10" s="2">
-        <v>0.95949608087539673</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.56091701984405518</v>
+        <v>0.97613579034805298</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.58699697256088257</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.37919247150421143</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0.90195608139038086</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0.87052839994430542</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0.87052839994430542</v>
+        <v>0.47508856654167175</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.89970755577087402</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.90255069732666016</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.90255069732666016</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -23444,16 +23454,16 @@
       <c r="B11" s="2">
         <v>0.95499551296234131</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.66593480110168457</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.61046916246414185</v>
       </c>
       <c r="E11" s="1">
         <v>0.87055963277816772</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.51073688268661499</v>
       </c>
       <c r="G11" s="1">
@@ -23465,62 +23475,62 @@
       <c r="I11" s="1">
         <v>0.79516744613647461</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.7401624321937561</v>
       </c>
       <c r="K11" s="1">
         <v>0.76973378658294678</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>0.46119001507759094</v>
       </c>
       <c r="M11" s="1">
-        <v>0.27821892499923706</v>
+        <v>0.28781309723854065</v>
       </c>
       <c r="N11" s="1">
-        <v>0.39552664756774902</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.78161990642547607</v>
+        <v>0.38234215974807739</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.80439496040344238</v>
       </c>
       <c r="P11" s="1">
-        <v>0.57873070240020752</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.53165167570114136</v>
+        <v>0.74393773078918457</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.44466212391853333</v>
       </c>
       <c r="R11" s="1">
-        <v>0.49230530858039856</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.72369307279586792</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.76590347290039063</v>
+        <v>0.51894116401672363</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.58872556686401367</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.81288135051727295</v>
       </c>
       <c r="U11" s="1">
-        <v>0.82621079683303833</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0.79600179195404053</v>
+        <v>0.83791851997375488</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.8020293116569519</v>
       </c>
       <c r="W11" s="1">
-        <v>0.96722549200057983</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0.58198213577270508</v>
+        <v>0.97090429067611694</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.63208287954330444</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.40019780397415161</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0.90110886096954346</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0.87767332792282104</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0.87767332792282104</v>
+        <v>0.48755988478660583</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.89596045017242432</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0.90883606672286987</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0.90883606672286987</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -23530,16 +23540,16 @@
       <c r="B12" s="1">
         <v>0.9457467794418335</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.66532033681869507</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.60336208343505859</v>
       </c>
       <c r="E12" s="2">
         <v>0.90630459785461426</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.50726580619812012</v>
       </c>
       <c r="G12" s="2">
@@ -23551,62 +23561,62 @@
       <c r="I12" s="2">
         <v>0.80677336454391479</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0.72442144155502319</v>
       </c>
       <c r="K12" s="2">
         <v>0.78774243593215942</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>0.42825642228126526</v>
       </c>
       <c r="M12" s="2">
-        <v>0.32556629180908203</v>
+        <v>0.3090330958366394</v>
       </c>
       <c r="N12" s="2">
-        <v>0.38932830095291138</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.76946544647216797</v>
+        <v>0.36951184272766113</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.77698695659637451</v>
       </c>
       <c r="P12" s="2">
-        <v>0.55856043100357056</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.536612868309021</v>
+        <v>0.74297261238098145</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.47431570291519165</v>
       </c>
       <c r="R12" s="2">
-        <v>0.53790122270584106</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.67433130741119385</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.79840689897537231</v>
+        <v>0.56073504686355591</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.55334383249282837</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.82791268825531006</v>
       </c>
       <c r="U12" s="2">
-        <v>0.81981134414672852</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0.80491507053375244</v>
+        <v>0.82653206586837769</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.80337285995483398</v>
       </c>
       <c r="W12" s="2">
-        <v>0.97647368907928467</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0.60895425081253052</v>
+        <v>0.98926395177841187</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.63978266716003418</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.41256850957870483</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>0.90648025274276733</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0.89035612344741821</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0.89035612344741821</v>
+        <v>0.47814998030662537</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0.90255945920944214</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.88888680934906006</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.88888680934906006</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -23616,16 +23626,16 @@
       <c r="B13" s="2">
         <v>0.91994541883468628</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.65526664257049561</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.62455195188522339</v>
       </c>
       <c r="E13" s="1">
         <v>0.9050557017326355</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.49718385934829712</v>
       </c>
       <c r="G13" s="1">
@@ -23637,62 +23647,62 @@
       <c r="I13" s="1">
         <v>0.76195281744003296</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.73415899276733398</v>
       </c>
       <c r="K13" s="1">
         <v>0.74058353900909424</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>0.40566623210906982</v>
       </c>
       <c r="M13" s="1">
-        <v>0.37978005409240723</v>
+        <v>0.3267274796962738</v>
       </c>
       <c r="N13" s="1">
-        <v>0.41313090920448303</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.74905639886856079</v>
+        <v>0.37961351871490479</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.74314862489700317</v>
       </c>
       <c r="P13" s="1">
-        <v>0.56420677900314331</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.56025975942611694</v>
+        <v>0.67535650730133057</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.45418870449066162</v>
       </c>
       <c r="R13" s="1">
-        <v>0.5517418384552002</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.68932634592056274</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0.80242663621902466</v>
+        <v>0.50457417964935303</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.5604628324508667</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.84944170713424683</v>
       </c>
       <c r="U13" s="1">
-        <v>0.80839443206787109</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0.79158753156661987</v>
+        <v>0.8245246410369873</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.80037164688110352</v>
       </c>
       <c r="W13" s="1">
-        <v>0.98637735843658447</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0.6414642333984375</v>
+        <v>0.94581025838851929</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.64223247766494751</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.42987561225891113</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0.90671610832214355</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0.88619083166122437</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0.88619083166122437</v>
+        <v>0.49072492122650146</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.89549905061721802</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0.90100741386413574</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0.90100741386413574</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -23702,16 +23712,16 @@
       <c r="B14" s="1">
         <v>0.90159934759140015</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.66289776563644409</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.62393563985824585</v>
       </c>
       <c r="E14" s="2">
         <v>0.90052396059036255</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.5097346305847168</v>
       </c>
       <c r="G14" s="2">
@@ -23723,62 +23733,62 @@
       <c r="I14" s="2">
         <v>0.74754345417022705</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>0.71393793821334839</v>
       </c>
       <c r="K14" s="2">
         <v>0.750682532787323</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>0.40291699767112732</v>
       </c>
       <c r="M14" s="2">
-        <v>0.39927762746810913</v>
+        <v>0.34825652837753296</v>
       </c>
       <c r="N14" s="2">
-        <v>0.41377052664756775</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.73248767852783203</v>
+        <v>0.39923414587974548</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.73283571004867554</v>
       </c>
       <c r="P14" s="2">
-        <v>0.55923575162887573</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.55882346630096436</v>
+        <v>0.64597439765930176</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.45903328061103821</v>
       </c>
       <c r="R14" s="2">
-        <v>0.55336803197860718</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.69244539737701416</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.79763948917388916</v>
+        <v>0.48565557599067688</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.56781554222106934</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.84735697507858276</v>
       </c>
       <c r="U14" s="2">
-        <v>0.83147907257080078</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0.80094641447067261</v>
+        <v>0.84308260679244995</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.80708646774291992</v>
       </c>
       <c r="W14" s="2">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0.67432355880737305</v>
+        <v>0.9476245641708374</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.68809068202972412</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.45775198936462402</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0.92833828926086426</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0.87515610456466675</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0.87515610456466675</v>
+        <v>0.50778430700302124</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0.84944695234298706</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.90016371011734009</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.90016371011734009</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -23788,16 +23798,16 @@
       <c r="B15" s="2">
         <v>0.90253573656082153</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.64051622152328491</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.62592774629592896</v>
       </c>
       <c r="E15" s="1">
         <v>0.90315300226211548</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.49339345097541809</v>
       </c>
       <c r="G15" s="1">
@@ -23809,62 +23819,62 @@
       <c r="I15" s="1">
         <v>0.75948655605316162</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>0.71547418832778931</v>
       </c>
       <c r="K15" s="1">
         <v>0.75143694877624512</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>0.41975414752960205</v>
       </c>
       <c r="M15" s="1">
-        <v>0.41537216305732727</v>
+        <v>0.35149577260017395</v>
       </c>
       <c r="N15" s="1">
-        <v>0.39723014831542969</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.71935999393463135</v>
+        <v>0.3757266104221344</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.72353154420852661</v>
       </c>
       <c r="P15" s="1">
-        <v>0.56871253252029419</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.55172127485275269</v>
+        <v>0.673054039478302</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.4474809467792511</v>
       </c>
       <c r="R15" s="1">
-        <v>0.54471981525421143</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.72066324949264526</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.80762439966201782</v>
+        <v>0.47900345921516418</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.58639043569564819</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.83750247955322266</v>
       </c>
       <c r="U15" s="1">
-        <v>0.83395576477050781</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0.78799986839294434</v>
+        <v>0.87728381156921387</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.80115145444869995</v>
       </c>
       <c r="W15" s="1">
-        <v>0.98891276121139526</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0.71503925323486328</v>
+        <v>0.94926923513412476</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.70720607042312622</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.47118929028511047</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0.92963701486587524</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0.89007091522216797</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0.89007091522216797</v>
+        <v>0.52002888917922974</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.89680731296539307</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0.90580970048904419</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0.90580970048904419</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -23874,16 +23884,16 @@
       <c r="B16" s="1">
         <v>0.9211270809173584</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>0.68361097574234009</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.62354332208633423</v>
       </c>
       <c r="E16" s="2">
         <v>0.91248011589050293</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.47849816083908081</v>
       </c>
       <c r="G16" s="2">
@@ -23895,62 +23905,62 @@
       <c r="I16" s="2">
         <v>0.79294651746749878</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>0.73992049694061279</v>
       </c>
       <c r="K16" s="2">
         <v>0.78874337673187256</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>0.42237094044685364</v>
       </c>
       <c r="M16" s="2">
-        <v>0.41700953245162964</v>
+        <v>0.35240501165390015</v>
       </c>
       <c r="N16" s="2">
-        <v>0.40879583358764648</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.70335209369659424</v>
+        <v>0.38240489363670349</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.71658676862716675</v>
       </c>
       <c r="P16" s="2">
-        <v>0.58381938934326172</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.54635500907897949</v>
+        <v>0.69048815965652466</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.45171207189559937</v>
       </c>
       <c r="R16" s="2">
-        <v>0.52065521478652954</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.72160100936889648</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.81076502799987793</v>
+        <v>0.45853456854820251</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.60309761762619019</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.83755600452423096</v>
       </c>
       <c r="U16" s="2">
-        <v>0.83523809909820557</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0.78750753402709961</v>
+        <v>0.87556219100952148</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.80101072788238525</v>
       </c>
       <c r="W16" s="2">
-        <v>0.99253344535827637</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0.71596139669418335</v>
+        <v>0.97838342189788818</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.71229612827301025</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.47899624705314636</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0.93041455745697021</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0.90166169404983521</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0.90166169404983521</v>
+        <v>0.51293152570724487</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0.88912904262542725</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0.91207224130630493</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0.91207224130630493</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -23960,16 +23970,16 @@
       <c r="B17" s="2">
         <v>0.9130670428276062</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.64827710390090942</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.61660981178283691</v>
       </c>
       <c r="E17" s="1">
         <v>0.89587485790252686</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.47236466407775879</v>
       </c>
       <c r="G17" s="1">
@@ -23981,62 +23991,62 @@
       <c r="I17" s="1">
         <v>0.79383754730224609</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>0.71522670984268188</v>
       </c>
       <c r="K17" s="1">
         <v>0.7482331395149231</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>0.42063647508621216</v>
       </c>
       <c r="M17" s="1">
-        <v>0.41522228717803955</v>
+        <v>0.35675901174545288</v>
       </c>
       <c r="N17" s="1">
-        <v>0.41812807321548462</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0.70439493656158447</v>
+        <v>0.39489281177520752</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.71938627958297729</v>
       </c>
       <c r="P17" s="1">
-        <v>0.57712048292160034</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.55358976125717163</v>
+        <v>0.68454259634017944</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.44899815320968628</v>
       </c>
       <c r="R17" s="1">
-        <v>0.59182155132293701</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.73136037588119507</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0.8156125545501709</v>
+        <v>0.50299853086471558</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.62481480836868286</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.84230685234069824</v>
       </c>
       <c r="U17" s="1">
-        <v>0.83740663528442383</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0.75824075937271118</v>
+        <v>0.87035048007965088</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.78560942411422729</v>
       </c>
       <c r="W17" s="1">
-        <v>0.97847294807434082</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0.71064454317092896</v>
+        <v>0.96692794561386108</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.73481225967407227</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.48063200712203979</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0.92852646112442017</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0.89350324869155884</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0.89350324869155884</v>
+        <v>0.50641834735870361</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.88118994235992432</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0.90489065647125244</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0.90489065647125244</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -24046,16 +24056,16 @@
       <c r="B18" s="1">
         <v>0.89861565828323364</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.68845933675765991</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.61888629198074341</v>
       </c>
       <c r="E18" s="2">
         <v>0.88950932025909424</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.50681811571121216</v>
       </c>
       <c r="G18" s="2">
@@ -24067,62 +24077,62 @@
       <c r="I18" s="2">
         <v>0.82261794805526733</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>0.7103961706161499</v>
       </c>
       <c r="K18" s="2">
         <v>0.75869274139404297</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>0.4362119734287262</v>
       </c>
       <c r="M18" s="2">
-        <v>0.42018839716911316</v>
+        <v>0.35611119866371155</v>
       </c>
       <c r="N18" s="2">
-        <v>0.4245353639125824</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.69447708129882813</v>
+        <v>0.38944205641746521</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.74011677503585815</v>
       </c>
       <c r="P18" s="2">
-        <v>0.57928156852722168</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.55062097311019897</v>
+        <v>0.66326272487640381</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.4673229455947876</v>
       </c>
       <c r="R18" s="2">
-        <v>0.55834919214248657</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.73061436414718628</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.82087403535842896</v>
+        <v>0.46393540501594543</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.63413494825363159</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.83202683925628662</v>
       </c>
       <c r="U18" s="2">
-        <v>0.82182079553604126</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0.74882161617279053</v>
+        <v>0.90178012847900391</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.78049391508102417</v>
       </c>
       <c r="W18" s="2">
-        <v>0.96720284223556519</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0.70958280563354492</v>
+        <v>0.95069211721420288</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.69787609577178955</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.48283681273460388</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0.92968469858169556</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0.88642776012420654</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>0.88642776012420654</v>
+        <v>0.52898311614990234</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0.909568190574646</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0.90886509418487549</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0.90886509418487549</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -24132,16 +24142,16 @@
       <c r="B19" s="2">
         <v>0.8866996169090271</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>0.66486561298370361</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.63826411962509155</v>
       </c>
       <c r="E19" s="1">
         <v>0.91884255409240723</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.5023033618927002</v>
       </c>
       <c r="G19" s="1">
@@ -24153,62 +24163,62 @@
       <c r="I19" s="1">
         <v>0.80908012390136719</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>0.72499269247055054</v>
       </c>
       <c r="K19" s="1">
         <v>0.79037511348724365</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>0.45186707377433777</v>
       </c>
       <c r="M19" s="1">
-        <v>0.41751843690872192</v>
+        <v>0.35872215032577515</v>
       </c>
       <c r="N19" s="1">
-        <v>0.42984351515769958</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.67171764373779297</v>
+        <v>0.39299154281616211</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.72835642099380493</v>
       </c>
       <c r="P19" s="1">
-        <v>0.54175382852554321</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.54228663444519043</v>
+        <v>0.65534371137619019</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.43949779868125916</v>
       </c>
       <c r="R19" s="1">
-        <v>0.56801730394363403</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.72822278738021851</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.82206344604492188</v>
+        <v>0.46909525990486145</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.64264881610870361</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.80891287326812744</v>
       </c>
       <c r="U19" s="1">
-        <v>0.81236326694488525</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.74627470970153809</v>
+        <v>0.84326016902923584</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.77765613794326782</v>
       </c>
       <c r="W19" s="1">
-        <v>0.96102583408355713</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0.70758748054504395</v>
+        <v>0.95815658569335938</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.71964627504348755</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.47522324323654175</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0.93030178546905518</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0.90151524543762207</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0.90151524543762207</v>
+        <v>0.52277278900146484</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.90815675258636475</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.91654598712921143</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.91654598712921143</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -24218,16 +24228,16 @@
       <c r="B20" s="1">
         <v>0.88159626722335815</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.65821683406829834</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.65721386671066284</v>
       </c>
       <c r="E20" s="2">
         <v>0.89618390798568726</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0.50118523836135864</v>
       </c>
       <c r="G20" s="2">
@@ -24239,62 +24249,62 @@
       <c r="I20" s="2">
         <v>0.80871528387069702</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>0.70113527774810791</v>
       </c>
       <c r="K20" s="2">
         <v>0.75696861743927002</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>0.44619172811508179</v>
       </c>
       <c r="M20" s="2">
-        <v>0.41119810938835144</v>
+        <v>0.35625088214874268</v>
       </c>
       <c r="N20" s="2">
-        <v>0.4467293918132782</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.65497368574142456</v>
+        <v>0.39164462685585022</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.68078219890594482</v>
       </c>
       <c r="P20" s="2">
-        <v>0.56245040893554688</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0.53073668479919434</v>
+        <v>0.65182477235794067</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.4303838312625885</v>
       </c>
       <c r="R20" s="2">
-        <v>0.59407854080200195</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.72181439399719238</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.84078997373580933</v>
+        <v>0.48585054278373718</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.64001244306564331</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.82773292064666748</v>
       </c>
       <c r="U20" s="2">
-        <v>0.80600565671920776</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0.75433599948883057</v>
+        <v>0.81380820274353027</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.7331010103225708</v>
       </c>
       <c r="W20" s="2">
-        <v>0.93264579772949219</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0.70624542236328125</v>
+        <v>0.91903513669967651</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.69749289751052856</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.47214379906654358</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0.92725622653961182</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0.89625740051269531</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0.89625740051269531</v>
+        <v>0.52394938468933105</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0.90661060810089111</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.91386860609054565</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.91386860609054565</v>
       </c>
     </row>
   </sheetData>
